--- a/biology/Neurosciences/Sciences_affectives/Sciences_affectives.xlsx
+++ b/biology/Neurosciences/Sciences_affectives/Sciences_affectives.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les sciences affectives forment un champ de recherche scientifique interdisciplinaire dans l'étude des émotions sur le modèle des sciences cognitives auxquelles elles appartiennent. 
 Parmi les disciplines constitutives des sciences affectives, on peut citer :
@@ -515,7 +527,9 @@
           <t>Institution/ Centre de recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Swiss Centre for Affective Sciences
 Centre Interfacultaire en Sciences Affectives
